--- a/2018-12-13/Teamplate/Teamplate.xlsx
+++ b/2018-12-13/Teamplate/Teamplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -39,16 +39,36 @@
   </si>
   <si>
     <t>Test 1</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>ServiceCare</t>
+  </si>
+  <si>
+    <t>Hifu</t>
+  </si>
+  <si>
+    <t>https://facebook.com/example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,14 +91,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,19 +380,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,8 +404,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -390,47 +421,53 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -455,7 +492,10 @@
       <c r="C23" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>